--- a/Data/autopilot.xlsx
+++ b/Data/autopilot.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrashanthM\eclipse-workspace\Autopilot\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D333-9280-443A-9B1F-FA88DD3E0547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B37E5750-0FF3-4326-86AE-263C5E2AF62B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CreateProject" sheetId="1" r:id="rId1"/>
     <sheet name="project_table" sheetId="4" r:id="rId2"/>
     <sheet name="projects" sheetId="3" r:id="rId3"/>
     <sheet name="SmokeTesting" sheetId="2" r:id="rId4"/>
+    <sheet name="wallet" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="278">
   <si>
     <t>slno</t>
   </si>
@@ -886,12 +881,21 @@
   <si>
     <t>Paused</t>
   </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>cpm</t>
+  </si>
+  <si>
+    <t>contun</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1047,7 +1051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1261,27 +1265,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DFEB1F-F968-4FA5-8589-E88CE6665DF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1969,20 +1973,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA3568E-BC4B-4347-98F4-01BE5A8680EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="110.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2083,7 +2087,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2097,20 +2101,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2814E6-01E4-4471-8181-BF5E944FC791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.8984375" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="55.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="55.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2414,7 +2418,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2447,7 +2451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="27.6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="27.6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="27.6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="41.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="41.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="27.6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="27.6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2579,7 +2583,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="27.6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="27.6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2634,7 +2638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="27.6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2711,7 +2715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="41.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="27.6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="27.6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2821,7 +2825,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2832,7 +2836,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="27.6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="27.6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="27.6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="27.6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="27.6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2986,7 +2990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="27.6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3268,20 +3272,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54200035-A314-4BBC-993B-EE403DEAD1F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3358,7 +3362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3400,6 +3404,65 @@
       </c>
       <c r="C11" t="s">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
